--- a/medicine/Enfance/Mary_Norton/Mary_Norton.xlsx
+++ b/medicine/Enfance/Mary_Norton/Mary_Norton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary Norton, née Pearson (née le 10 décembre 1903, morte le 29 août 1992), est une écrivaine anglaise, auteure de livres de fantasy pour la jeunesse. Ses livres les plus connus sont la série des Chapardeurs (Borrowers).
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1903, Norton était la fille d'un médecin[1]. Elle grandit dans une demeure géorgienne, sur High Street, dans la ville de Leighton Buzzard, dans le comté du Bedfordshire en Angleterre. La maison des Norton, « The Cedars » (« Les Cèdres »), a actuellement été intégrée à la Leighton Middle School sous le nom de « the Old House » (« la Vieille Maison ») ; c'est dans cette maison que se déroule l'histoire de la série romanesque Les Chapardeurs.
-Elle commence par être actrice de théâtre[1]. Elle épouse Robert C. Norton en 1927 et a de lui quatre enfants, deux garçons et deux filles. Elle se remarie par la suite, en 1970, avec Lionel Bonsey. En 1940, elle commence à travailler pour le Ministère britannique de la Guerre, puis la famille s'expatrie temporairement aux États-Unis[1].
-Mary Norton commence à écrire pendant la Seconde Guerre mondiale, aux États-Unis, où elle travaille pour la British Purchasing Commission à New York. Son premier livre a pour titre The Magic Bed Knob, or How to Become a Witch in Ten Easy Lessons (Le Pied de lit magique, ou Comment devenir une sorcière aisément en dix leçons) ; le livre paraît en 1943. Ce livre, ainsi que sa suite, Bonfires and Broomsticks, sert de base au film des studios Disney L'Apprentie sorcière, sorti en 1971[2]. Elle est aussi particulièrement connue pour ses cinq romans de la série Les Chapardeurs[1], dont le premier tome a inspiré un film d'animation japonais, Arrietty : Le Petit Monde des Chapardeurs, réalisé par Hiromasa Yonebayashi, sur un scénario de Hayao Miyazaki[3].
-Mary Norton meurt d'une crise cardiaque dans le Devon, en Angleterre, en 1992[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1903, Norton était la fille d'un médecin. Elle grandit dans une demeure géorgienne, sur High Street, dans la ville de Leighton Buzzard, dans le comté du Bedfordshire en Angleterre. La maison des Norton, « The Cedars » (« Les Cèdres »), a actuellement été intégrée à la Leighton Middle School sous le nom de « the Old House » (« la Vieille Maison ») ; c'est dans cette maison que se déroule l'histoire de la série romanesque Les Chapardeurs.
+Elle commence par être actrice de théâtre. Elle épouse Robert C. Norton en 1927 et a de lui quatre enfants, deux garçons et deux filles. Elle se remarie par la suite, en 1970, avec Lionel Bonsey. En 1940, elle commence à travailler pour le Ministère britannique de la Guerre, puis la famille s'expatrie temporairement aux États-Unis.
+Mary Norton commence à écrire pendant la Seconde Guerre mondiale, aux États-Unis, où elle travaille pour la British Purchasing Commission à New York. Son premier livre a pour titre The Magic Bed Knob, or How to Become a Witch in Ten Easy Lessons (Le Pied de lit magique, ou Comment devenir une sorcière aisément en dix leçons) ; le livre paraît en 1943. Ce livre, ainsi que sa suite, Bonfires and Broomsticks, sert de base au film des studios Disney L'Apprentie sorcière, sorti en 1971. Elle est aussi particulièrement connue pour ses cinq romans de la série Les Chapardeurs, dont le premier tome a inspiré un film d'animation japonais, Arrietty : Le Petit Monde des Chapardeurs, réalisé par Hiromasa Yonebayashi, sur un scénario de Hayao Miyazaki.
+Mary Norton meurt d'une crise cardiaque dans le Devon, en Angleterre, en 1992.
 </t>
         </is>
       </c>
@@ -545,15 +559,51 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Magic Bed Knob, or How to Become a Witch in Ten Easy Lessons (« Le Pied de lit magique, ou Comment devenir une sorcière aisément en dix leçons »), 1943
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Magic Bed Knob, or How to Become a Witch in Ten Easy Lessons (« Le Pied de lit magique, ou Comment devenir une sorcière aisément en dix leçons »), 1943
 Bonfires and Broomsticks, 1947 (« Feux de joie et manches à balais »)
 Are all the Giants Dead, 1975 (« Tous les géants sont-ils bien morts ? », illustrations de Brian Froud, couverture de Henri Galeron, Éditions Gallimard, coll. Folio Junior)
 Le Petit chat qui croyait être une souris, illustrations de G. Williams, Éditions des Deux coqs d'or, coll. Un petit livre d'or, no 94, 1954. Réédition no 309, 1968 et 1981
-L'étrange histoire de l'apprentie sorcière, illustrations François Batet, Éditions Hachette, coll. Idéal-Bibliothèque, 1972
-La série des Chapardeurs
-The Borrowers, 1952 (Les Chapardeurs, 1957)
+L'étrange histoire de l'apprentie sorcière, illustrations François Batet, Éditions Hachette, coll. Idéal-Bibliothèque, 1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mary_Norton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mary_Norton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La série des Chapardeurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Borrowers, 1952 (Les Chapardeurs, 1957)
 The Borrowers Afield, 1955 (Les Chapardeurs aux champs, 1982)
 The Borrowers Afloat, 1959 (Les Chapardeurs sur l'eau, 1982)
 The Borrowers Aloft, 1961 (Les Chapardeurs en ballon, 1982)
@@ -564,34 +614,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Mary_Norton</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mary_Norton</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1952 : Médaille Carnegie pour The Borrowers (Les Chapardeurs)
-1962 : (international) « Honor List »[4], de l' IBBY, pour The Borrowers Afloat (Les Chapardeurs sur l'eau)</t>
+1962 : (international) « Honor List », de l' IBBY, pour The Borrowers Afloat (Les Chapardeurs sur l'eau)</t>
         </is>
       </c>
     </row>
